--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail11 Features.xlsx
@@ -6501,7 +6501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6512,29 +6512,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6555,115 +6553,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6680,72 +6668,66 @@
         <v>3.05430093483031e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6224097134391606</v>
+        <v>1.079532272418614e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.7898084200209952</v>
+        <v>4.459642695477262e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.079532272418614e-06</v>
+        <v>-0.03575203126505491</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.459642695477262e-06</v>
+        <v>0.1635462499764354</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03575203126505491</v>
+        <v>0.02802037102477556</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1635462499764354</v>
+        <v>1.724857065739409</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02802037102477556</v>
+        <v>1.571250655205343</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.654727785890852</v>
+        <v>4.075063856942141</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.571250655205343</v>
+        <v>4.78505292572104e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.075063856942141</v>
+        <v>48946194.50348587</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.78505292572104e-15</v>
+        <v>2.336067331008061e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>48946194.50348587</v>
+        <v>11.4636946369805</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.336067331008061e-06</v>
+        <v>0.0001403291220286852</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>11.4636946369805</v>
+        <v>9.481179283145549</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001403291220286852</v>
+        <v>1.182724565394383</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.481179283145549</v>
+        <v>0.01261457217161327</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.182724565394383</v>
+        <v>2.828869008057658</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01261457217161327</v>
+        <v>0.9554400512551635</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.828869008057658</v>
+        <v>1.779253263968081</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9554400512551635</v>
+        <v>20</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.779253263968081</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1855770960028545</v>
       </c>
     </row>
@@ -6760,72 +6742,66 @@
         <v>3.088014442837861e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6571394157396527</v>
+        <v>1.107294995929388e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.7487879542330731</v>
+        <v>4.449108294966598e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.107294995929388e-06</v>
+        <v>-0.03304665734321553</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.449108294966598e-06</v>
+        <v>0.1599428828952778</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.03304665734321553</v>
+        <v>0.02667012080308034</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1599428828952778</v>
+        <v>1.748878714563429</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02667012080308034</v>
+        <v>1.716757194190903</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.686216123659716</v>
+        <v>4.101808250143025</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.716757194190903</v>
+        <v>4.722857851420965e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.101808250143025</v>
+        <v>50505484.11012378</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.722857851420965e-15</v>
+        <v>2.281165609385546e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>50505484.11012378</v>
+        <v>12.04708434555663</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.281165609385546e-06</v>
+        <v>0.0001472185201042829</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>12.04708434555663</v>
+        <v>8.389206233241568</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001472185201042829</v>
+        <v>1.383258503335195</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.389206233241568</v>
+        <v>0.01036106001851964</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.383258503335195</v>
+        <v>2.985076178142868</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01036106001851964</v>
+        <v>0.9545202265082648</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.985076178142868</v>
+        <v>1.741586062262054</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9545202265082648</v>
+        <v>17</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.741586062262054</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1710179674670317</v>
       </c>
     </row>
@@ -6840,72 +6816,66 @@
         <v>3.130736606881723e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6781788869585023</v>
+        <v>1.133655055321296e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7273306416594023</v>
+        <v>4.439200841623219e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.133655055321296e-06</v>
+        <v>-0.03092132216414878</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.439200841623219e-06</v>
+        <v>0.1566401456358092</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03092132216414878</v>
+        <v>0.02549037550949951</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1566401456358092</v>
+        <v>1.749359794304549</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02549037550949951</v>
+        <v>1.758556017171836</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.68800426932599</v>
+        <v>4.093590175219814</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.758556017171836</v>
+        <v>4.74183960448984e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.093590175219814</v>
+        <v>51298008.50981872</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.74183960448984e-15</v>
+        <v>2.258684802756654e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>51298008.50981872</v>
+        <v>12.47808300219457</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.258684802756654e-06</v>
+        <v>0.0001714723616182356</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>12.47808300219457</v>
+        <v>8.582249538424584</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001714723616182356</v>
+        <v>1.593137013898041</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.582249538424584</v>
+        <v>0.01262979801926763</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.593137013898041</v>
+        <v>2.937805943305511</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01262979801926763</v>
+        <v>0.9543770504241272</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.937805943305511</v>
+        <v>1.780175636318317</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9543770504241272</v>
+        <v>17</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.780175636318317</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.157529992314203</v>
       </c>
     </row>
@@ -6920,72 +6890,66 @@
         <v>3.179666366430658e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6880290008822326</v>
+        <v>1.158421192200869e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.7193158802194826</v>
+        <v>4.429720709081679e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.158421192200869e-06</v>
+        <v>-0.02917169851473159</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.429720709081679e-06</v>
+        <v>0.15351522487859</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02917169851473159</v>
+        <v>0.02441603316602575</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.15351522487859</v>
+        <v>1.750212964344845</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02441603316602575</v>
+        <v>1.715021360490544</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.691719208691302</v>
+        <v>4.14767223323007</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.715021360490544</v>
+        <v>4.618986834405971e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.14767223323007</v>
+        <v>52628213.08451329</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.618986834405971e-15</v>
+        <v>2.199745476714649e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>52628213.08451329</v>
+        <v>12.7933409196689</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.199745476714649e-06</v>
+        <v>0.000156095460546938</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>12.7933409196689</v>
+        <v>9.679125369114226</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000156095460546938</v>
+        <v>1.250325678464076</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.679125369114226</v>
+        <v>0.01462387626012771</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.250325678464076</v>
+        <v>2.883197209755006</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01462387626012771</v>
+        <v>0.9519141963075316</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.883197209755006</v>
+        <v>1.771984290118624</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9519141963075316</v>
+        <v>17</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.771984290118624</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1685929356230329</v>
       </c>
     </row>
@@ -7000,72 +6964,66 @@
         <v>3.233360511627952e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.6881586060660084</v>
+        <v>1.181498994932727e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.7222263649187139</v>
+        <v>4.420650417088438e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.181498994932727e-06</v>
+        <v>-0.02755231420647627</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.420650417088438e-06</v>
+        <v>0.1503730760488978</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02755231420647627</v>
+        <v>0.02337022116490305</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1503730760488978</v>
+        <v>1.7585905768361</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02337022116490305</v>
+        <v>1.705851149614469</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.702876919872692</v>
+        <v>4.18006959032118</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.705851149614469</v>
+        <v>4.547665980232379e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.18006959032118</v>
+        <v>53236910.52348633</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.547665980232379e-15</v>
+        <v>2.175265831344114e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>53236910.52348633</v>
+        <v>12.88885231585449</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.175265831344114e-06</v>
+        <v>0.0001439356884376317</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>12.88885231585449</v>
+        <v>10.15761518101324</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001439356884376317</v>
+        <v>1.141197767236158</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.15761518101324</v>
+        <v>0.01485087356436869</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.141197767236158</v>
+        <v>2.746208766351763</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01485087356436869</v>
+        <v>0.9532831667644373</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.746208766351763</v>
+        <v>1.726177130121622</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9532831667644373</v>
+        <v>17</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.726177130121622</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1857583835532347</v>
       </c>
     </row>
@@ -7080,72 +7038,66 @@
         <v>3.290226122620821e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6823642320454021</v>
+        <v>1.202810810124817e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.7309106969003216</v>
+        <v>4.411766669489853e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.202810810124817e-06</v>
+        <v>-0.02722444516809338</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.411766669489853e-06</v>
+        <v>0.1477499158263376</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02722444516809338</v>
+        <v>0.02257105486109781</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1477499158263376</v>
+        <v>1.764579607227784</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02257105486109781</v>
+        <v>1.631797902340914</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.71127249995849</v>
+        <v>4.169973066663385</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.631797902340914</v>
+        <v>4.569714661548145e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.169973066663385</v>
+        <v>52513526.03595085</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.569714661548145e-15</v>
+        <v>2.203569067521019e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>52513526.03595085</v>
+        <v>12.60176693504176</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.203569067521019e-06</v>
+        <v>0.0001366834229916885</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>12.60176693504176</v>
+        <v>9.015334803467601</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001366834229916885</v>
+        <v>1.197469215808109</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.015334803467601</v>
+        <v>0.01110911764600018</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.197469215808109</v>
+        <v>2.90814780363925</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01110911764600018</v>
+        <v>0.9536537826241295</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.90814780363925</v>
+        <v>1.750084086480453</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9536537826241295</v>
+        <v>14</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.750084086480453</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1866437308767045</v>
       </c>
     </row>
@@ -7160,72 +7112,66 @@
         <v>3.348495393511862e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.6774528731069069</v>
+        <v>1.222125023556971e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.7373348944833458</v>
+        <v>4.402522644731325e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.222125023556971e-06</v>
+        <v>-0.02871451450071015</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.402522644731325e-06</v>
+        <v>0.1447375757116677</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02871451450071015</v>
+        <v>0.02177276654121108</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1447375757116677</v>
+        <v>1.765677271523761</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02177276654121108</v>
+        <v>1.586771659760993</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.711820083803622</v>
+        <v>4.196696477224186</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.586771659760993</v>
+        <v>4.51170257817972e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.196696477224186</v>
+        <v>51703494.13177098</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.51170257817972e-15</v>
+        <v>2.233121786804647e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>51703494.13177098</v>
+        <v>12.06091480684922</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.233121786804647e-06</v>
+        <v>0.0001374358278280757</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>12.06091480684922</v>
+        <v>8.045649011989569</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001374358278280757</v>
+        <v>1.329240375531631</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.045649011989569</v>
+        <v>0.008896560330250569</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.329240375531631</v>
+        <v>3.015002223388591</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008896560330250569</v>
+        <v>0.9529438211839649</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.015002223388591</v>
+        <v>1.76285560071316</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9529438211839649</v>
+        <v>14</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.76285560071316</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1842427978798384</v>
       </c>
     </row>
@@ -7240,72 +7186,66 @@
         <v>3.406196998639677e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6787294398209764</v>
+        <v>1.239681611229442e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.7345087499685956</v>
+        <v>4.392485271621514e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.239681611229442e-06</v>
+        <v>-0.03062483017702589</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.392485271621514e-06</v>
+        <v>0.1414418074897162</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03062483017702589</v>
+        <v>0.02094321059246778</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1414418074897162</v>
+        <v>1.761518640403621</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02094321059246778</v>
+        <v>1.557410993351159</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.709344556173029</v>
+        <v>4.288092644923793</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.557410993351159</v>
+        <v>4.321427818754945e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.288092644923793</v>
+        <v>52423468.16912296</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.321427818754945e-15</v>
+        <v>2.184246370716798e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>52423468.16912296</v>
+        <v>11.87623442435745</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.184246370716798e-06</v>
+        <v>0.000151596203587924</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>11.87623442435745</v>
+        <v>8.081664453024359</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000151596203587924</v>
+        <v>1.481065534182742</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.081664453024359</v>
+        <v>0.00990124837401957</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.481065534182742</v>
+        <v>2.995975022349592</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00990124837401957</v>
+        <v>0.9514883286689658</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.995975022349592</v>
+        <v>1.744651391212738</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9514883286689658</v>
+        <v>14</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.744651391212738</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.181009561107794</v>
       </c>
     </row>
@@ -7320,72 +7260,66 @@
         <v>3.462086100123377e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.686442445608626</v>
+        <v>1.255571099180714e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.7212589871383264</v>
+        <v>4.381691938412929e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.255571099180714e-06</v>
+        <v>-0.03223469555386566</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.381691938412929e-06</v>
+        <v>0.1384224907186716</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03223469555386566</v>
+        <v>0.02019929197711517</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1384224907186716</v>
+        <v>1.755541867716836</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02019929197711517</v>
+        <v>1.527050286600501</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.706997293162252</v>
+        <v>4.48178714748417</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.527050286600501</v>
+        <v>3.955971273020417e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.48178714748417</v>
+        <v>56724453.91958702</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.955971273020417e-15</v>
+        <v>2.01314238923393e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>56724453.91958702</v>
+        <v>12.72898505455387</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.01314238923393e-06</v>
+        <v>0.0001786490907491362</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>12.72898505455387</v>
+        <v>10.27692414007713</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001786490907491362</v>
+        <v>1.225239276689387</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.27692414007713</v>
+        <v>0.01886805405067345</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.225239276689387</v>
+        <v>2.726146489213262</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01886805405067345</v>
+        <v>0.952437265469254</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.726146489213262</v>
+        <v>1.764345165595885</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.952437265469254</v>
+        <v>14</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.764345165595885</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.193460771914749</v>
       </c>
     </row>
@@ -7400,72 +7334,66 @@
         <v>3.514303444096508e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.7016784544357252</v>
+        <v>1.269166029666525e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.6942873921258146</v>
+        <v>4.3700820411045e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.269166029666525e-06</v>
+        <v>-0.03441982204525453</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.3700820411045e-06</v>
+        <v>0.134891021529426</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03441982204525453</v>
+        <v>0.01937907279889199</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.134891021529426</v>
+        <v>1.762492803840236</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01937907279889199</v>
+        <v>1.520076055046568</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.71371176630826</v>
+        <v>4.714007151201542</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.520076055046568</v>
+        <v>3.381768735752003e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.714007151201542</v>
+        <v>67332990.21486337</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.381768735752003e-15</v>
+        <v>1.709736573817033e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>67332990.21486337</v>
+        <v>15.33203168402922</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.709736573817033e-06</v>
+        <v>0.0002281914031432821</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>15.33203168402922</v>
+        <v>13.56607041785739</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002281914031432821</v>
+        <v>0.9763067756015613</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>13.56607041785739</v>
+        <v>0.04199595028346453</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>0.9763067756015613</v>
+        <v>2.108754865235887</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.04199595028346453</v>
+        <v>0.9531709698975014</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.108754865235887</v>
+        <v>1.787721649169912</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9531709698975014</v>
+        <v>14</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.787721649169912</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2374970243272753</v>
       </c>
     </row>
@@ -7480,72 +7408,66 @@
         <v>3.55944626598738e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.7267065124082254</v>
+        <v>1.279511551242781e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.6462949499469697</v>
+        <v>4.35746272380405e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.279511551242781e-06</v>
+        <v>-0.03689425096802964</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.35746272380405e-06</v>
+        <v>0.1311148783168977</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03689425096802964</v>
+        <v>0.01855098173179553</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1311148783168977</v>
+        <v>1.853085856552</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01855098173179553</v>
+        <v>1.671189036671269</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.833924209940064</v>
+        <v>4.038938578577934</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.671189036671269</v>
+        <v>3.251421547934096e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.038938578577934</v>
+        <v>69147903.47044796</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.251421547934096e-15</v>
+        <v>1.716788786272752e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>69147903.47044796</v>
+        <v>15.54645283723443</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.716788786272752e-06</v>
+        <v>0.0002681934542126782</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>15.54645283723443</v>
+        <v>12.11559833337674</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002681934542126782</v>
+        <v>1.262911290552464</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.11559833337674</v>
+        <v>0.03936750646087237</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.262911290552464</v>
+        <v>2.2783625834385</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.03936750646087237</v>
+        <v>0.9547757518025195</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.2783625834385</v>
+        <v>1.508712150475744</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9547757518025195</v>
+        <v>13</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.508712150475744</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2791106225425357</v>
       </c>
     </row>
@@ -7560,72 +7482,66 @@
         <v>3.594388185617774e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.7618666144861029</v>
+        <v>1.285324411937054e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.5729366377472513</v>
+        <v>4.343849964027613e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.285324411937054e-06</v>
+        <v>-0.03902018280880125</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.343849964027613e-06</v>
+        <v>0.127975606223805</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03902018280880125</v>
+        <v>0.01789980664020359</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.127975606223805</v>
+        <v>1.881076088710614</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01789980664020359</v>
+        <v>1.584714293796352</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.877390587010633</v>
+        <v>5.382794454080619</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.584714293796352</v>
+        <v>1.721603224483345e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.382794454080619</v>
+        <v>133871771.2107062</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.721603224483345e-15</v>
+        <v>8.960477345080122e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>133871771.2107062</v>
+        <v>30.85397236846658</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.960477345080122e-07</v>
+        <v>0.0002860023731240184</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>30.85397236846658</v>
+        <v>11.31437885001205</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002860023731240184</v>
+        <v>1.488355949483887</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.31437885001205</v>
+        <v>0.03661264206168931</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.488355949483887</v>
+        <v>2.504485650278303</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.03661264206168931</v>
+        <v>0.9560565246008135</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.504485650278303</v>
+        <v>1.475410359126706</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9560565246008135</v>
+        <v>13</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.475410359126706</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.5562725339201003</v>
       </c>
     </row>
@@ -7640,72 +7556,66 @@
         <v>3.618328075961897e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.8057584066588388</v>
+        <v>1.286196494174033e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.4760338504612434</v>
+        <v>4.329549669550811e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.286196494174033e-06</v>
+        <v>-0.04011808607366758</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.329549669550811e-06</v>
+        <v>0.1262723470607678</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04011808607366758</v>
+        <v>0.01755404586945407</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1262723470607678</v>
+        <v>1.901332547985585</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01755404586945407</v>
+        <v>1.713520261287039</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.912362391958978</v>
+        <v>5.700776011158192</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.713520261287039</v>
+        <v>7.711765965717081e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.700776011158192</v>
+        <v>307571428.1627802</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>7.711765965717081e-16</v>
+        <v>3.919117950495988e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>307571428.1627802</v>
+        <v>72.95344748650844</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.919117950495988e-07</v>
+        <v>0.0002541695317595043</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>72.95344748650844</v>
+        <v>11.04676606459762</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002541695317595043</v>
+        <v>1.496832843519732</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.04676606459762</v>
+        <v>0.03101657242043787</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.496832843519732</v>
+        <v>2.87768107391152</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03101657242043787</v>
+        <v>0.9573169896620057</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.87768107391152</v>
+        <v>1.319927958957662</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9573169896620057</v>
+        <v>13</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.319927958957662</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.094520614080726</v>
       </c>
     </row>
@@ -7720,72 +7630,66 @@
         <v>3.631029764467553e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.8577776532966681</v>
+        <v>1.286196494174033e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.3565777412210789</v>
+        <v>4.314859590280373e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.286196494174033e-06</v>
+        <v>-0.04077573185386667</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.314859590280373e-06</v>
+        <v>0.1253083519387476</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04077573185386667</v>
+        <v>0.0173649163720815</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1253083519387476</v>
+        <v>1.9121800724174</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0173649163720815</v>
+        <v>1.798973542133293</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.929396526399427</v>
+        <v>5.668188289745999</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.798973542133293</v>
+        <v>5.359716072626243e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.668188289745999</v>
+        <v>443379578.2436153</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.359716072626243e-16</v>
+        <v>2.725137195177856e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>443379578.2436153</v>
+        <v>105.3642198172034</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.725137195177856e-07</v>
+        <v>0.0002186947624149513</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>105.3642198172034</v>
+        <v>11.94983384259481</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002186947624149513</v>
+        <v>1.167739789257731</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.94983384259481</v>
+        <v>0.03122929034347225</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.167739789257731</v>
+        <v>2.801043451411473</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.03122929034347225</v>
+        <v>0.9585949105549414</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.801043451411473</v>
+        <v>1.212139517784002</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9585949105549414</v>
+        <v>13</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.212139517784002</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.123479343967109</v>
       </c>
     </row>
@@ -7800,72 +7704,66 @@
         <v>3.633228070608239e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.9178366280453788</v>
+        <v>1.286196494174033e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.215621700463053</v>
+        <v>4.300143186141571e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.286196494174033e-06</v>
+        <v>-0.03991384927968222</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.300143186141571e-06</v>
+        <v>0.1255730617285031</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03991384927968222</v>
+        <v>0.01736155385514129</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1255730617285031</v>
+        <v>1.913530140295177</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01736155385514129</v>
+        <v>1.784261751409373</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.926097574272923</v>
+        <v>5.00512598497089</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.784261751409373</v>
+        <v>7.93098875639487e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.00512598497089</v>
+        <v>297424259.3137028</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>7.93098875639487e-16</v>
+        <v>4.061932256320219e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>297424259.3137028</v>
+        <v>70.15847034917945</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.061932256320219e-07</v>
+        <v>0.0002328177345401867</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>70.15847034917945</v>
+        <v>12.86600329631991</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002328177345401867</v>
+        <v>1.087268439128063</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.86600329631991</v>
+        <v>0.0385392603732082</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.087268439128063</v>
+        <v>2.565140726860682</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0385392603732082</v>
+        <v>0.959094048047209</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.565140726860682</v>
+        <v>1.231536935092172</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.959094048047209</v>
+        <v>13</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.231536935092172</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.8879848548996785</v>
       </c>
     </row>
@@ -7880,72 +7778,66 @@
         <v>3.628381886543782e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.9851960734770837</v>
+        <v>1.286196494174033e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.05946588258233554</v>
+        <v>4.286016048964261e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.286196494174033e-06</v>
+        <v>-0.0377882466072916</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.286016048964261e-06</v>
+        <v>0.126612880908107</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0377882466072916</v>
+        <v>0.01745821158779298</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.126612880908107</v>
+        <v>1.912195114878526</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01745821158779298</v>
+        <v>1.696725529845764</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.917089067028547</v>
+        <v>4.236319741034739</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.696725529845764</v>
+        <v>1.52113585540663e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.236319741034739</v>
+        <v>152087666.8765633</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.52113585540663e-15</v>
+        <v>7.942941789941582e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>152087666.8765633</v>
+        <v>35.18487387567455</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>7.942941789941582e-07</v>
+        <v>0.0002593457051769778</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>35.18487387567455</v>
+        <v>13.63497260949407</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002593457051769778</v>
+        <v>1.102759005568244</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>13.63497260949407</v>
+        <v>0.04821560272409894</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.102759005568244</v>
+        <v>2.437370741445024</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.04821560272409894</v>
+        <v>0.9601065379674528</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.437370741445024</v>
+        <v>1.319269282499593</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9601065379674528</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.319269282499593</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.6891364407709785</v>
       </c>
     </row>
@@ -7960,72 +7852,66 @@
         <v>3.614985572136747e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.060988701079201</v>
+        <v>1.286196494174033e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.1175772083239988</v>
+        <v>4.272720653740375e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.286196494174033e-06</v>
+        <v>-0.03569826252805218</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.272720653740375e-06</v>
+        <v>0.1285990467514478</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.03569826252805218</v>
+        <v>0.01781110687997728</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1285990467514478</v>
+        <v>1.834753008612066</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01781110687997728</v>
+        <v>1.699789235232025</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.818085369836707</v>
+        <v>3.737306449664295</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.699789235232025</v>
+        <v>1.963093457099818e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.737306449664295</v>
+        <v>117559629.8877628</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.963093457099818e-15</v>
+        <v>1.001497814271934e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>117559629.8877628</v>
+        <v>27.1304748972929</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.001497814271934e-06</v>
+        <v>0.0002484947385981451</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>27.1304748972929</v>
+        <v>14.71416709819189</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002484947385981451</v>
+        <v>0.9755868884226878</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>14.71416709819189</v>
+        <v>0.05380077914946445</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>0.9755868884226878</v>
+        <v>2.270765991409354</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.05380077914946445</v>
+        <v>0.9574757518723007</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.270765991409354</v>
+        <v>1.48235079382706</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9574757518723007</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.48235079382706</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.515493087415514</v>
       </c>
     </row>
@@ -8040,72 +7926,66 @@
         <v>3.587870909556259e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.147352450100335</v>
+        <v>1.286196494174033e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.3353196550521198</v>
+        <v>4.260029137342941e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.286196494174033e-06</v>
+        <v>-0.0350855144280166</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.260029137342941e-06</v>
+        <v>0.1304338066106161</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.0350855144280166</v>
+        <v>0.01824191904044051</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1304338066106161</v>
+        <v>1.804058731000253</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01824191904044051</v>
+        <v>1.704537974833116</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.771016170355006</v>
+        <v>4.635838443981774</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.704537974833116</v>
+        <v>2.311153221925948e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.635838443981774</v>
+        <v>96990965.51530008</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.311153221925948e-15</v>
+        <v>1.199311055533917e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>96990965.51530008</v>
+        <v>21.741590118528</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.199311055533917e-06</v>
+        <v>0.0002010244845297613</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>21.741590118528</v>
+        <v>11.60380988207205</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002010244845297613</v>
+        <v>1.18069263360006</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>11.60380988207205</v>
+        <v>0.02706762596248349</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.18069263360006</v>
+        <v>2.676650722465391</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.02706762596248349</v>
+        <v>0.9568879356396633</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.676650722465391</v>
+        <v>1.721901630387579</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9568879356396633</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.721901630387579</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.3247539341881427</v>
       </c>
     </row>
@@ -8120,72 +8000,66 @@
         <v>3.538578360978747e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.246827298690935</v>
+        <v>1.286196494174033e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.6266627141471774</v>
+        <v>4.247248009408961e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.286196494174033e-06</v>
+        <v>-0.03702436686987057</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.247248009408961e-06</v>
+        <v>0.1298242181619931</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.03702436686987057</v>
+        <v>0.0182184089636127</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1298242181619931</v>
+        <v>1.767173013046055</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.0182184089636127</v>
+        <v>1.711821217308263</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.717986608385637</v>
+        <v>4.615958485843862</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.711821217308263</v>
+        <v>2.331103387640563e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.615958485843862</v>
+        <v>97366064.38786449</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.331103387640563e-15</v>
+        <v>1.18778761552595e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>97366064.38786449</v>
+        <v>22.09921093279571</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.18778761552595e-06</v>
+        <v>0.0001495218503170685</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>22.09921093279571</v>
+        <v>8.661668615304976</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001495218503170685</v>
+        <v>1.400942559397072</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.661668615304976</v>
+        <v>0.01121780253778606</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.400942559397072</v>
+        <v>3.076231930990947</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01121780253778606</v>
+        <v>0.9581299511492117</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.076231930990947</v>
+        <v>1.700949094605147</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9581299511492117</v>
+        <v>2</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.700949094605147</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2433439824890338</v>
       </c>
     </row>
@@ -8200,72 +8074,66 @@
         <v>3.450542381676957e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.359416916406107</v>
+        <v>1.286196494174033e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.033043702637562</v>
+        <v>4.233578855638709e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.286196494174033e-06</v>
+        <v>-0.04126238313945581</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.233578855638709e-06</v>
+        <v>0.1259145510990915</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04126238313945581</v>
+        <v>0.01754831414718222</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1259145510990915</v>
+        <v>1.756580558409287</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01754831414718222</v>
+        <v>1.712187476831069</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.700657544365596</v>
+        <v>4.64858269356597</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.712187476831069</v>
+        <v>2.298498380238807e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.64858269356597</v>
+        <v>100109538.9928573</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.298498380238807e-15</v>
+        <v>1.154310611710325e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>100109538.9928573</v>
+        <v>23.03536642112073</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.154310611710325e-06</v>
+        <v>0.0001175699045022144</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>23.03536642112073</v>
+        <v>7.429396458739455</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001175699045022144</v>
+        <v>1.343523181596348</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.429396458739455</v>
+        <v>0.006489380423715438</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.343523181596348</v>
+        <v>3.241437134977302</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.006489380423715438</v>
+        <v>0.957011783749475</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.241437134977302</v>
+        <v>1.712431168133361</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.957011783749475</v>
+        <v>2</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.712431168133361</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2374262322461796</v>
       </c>
     </row>
@@ -8280,72 +8148,66 @@
         <v>3.31107028152776e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.473014499755674</v>
+        <v>1.286196494174033e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.554673298185724</v>
+        <v>4.218892571805659e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.286196494174033e-06</v>
+        <v>-0.04523932152239341</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.218892571805659e-06</v>
+        <v>0.1263914036104888</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04523932152239341</v>
+        <v>0.0180163986622105</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1263914036104888</v>
+        <v>1.707012952901149</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0180163986622105</v>
+        <v>1.730764647458171</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.651184881053251</v>
+        <v>4.865294539963537</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.730764647458171</v>
+        <v>2.302927500642033e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.865294539963537</v>
+        <v>103552272.9721782</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.302927500642033e-15</v>
+        <v>1.075237784626122e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>103552272.9721782</v>
+        <v>24.69446025050829</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.075237784626122e-06</v>
+        <v>0.0001045592750203631</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>24.69446025050829</v>
+        <v>7.198757996587181</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001045592750203631</v>
+        <v>1.253107361417194</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.198757996587181</v>
+        <v>0.005418482951485477</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.253107361417194</v>
+        <v>3.25031051630928</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.005418482951485477</v>
+        <v>0.9533364632477553</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.25031051630928</v>
+        <v>1.697943795513501</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9533364632477553</v>
+        <v>3</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.697943795513501</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2487034527701081</v>
       </c>
     </row>
@@ -8360,72 +8222,66 @@
         <v>3.122693561088654e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.568523162764835</v>
+        <v>1.286196494174033e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2.143437430515249</v>
+        <v>4.203754505553197e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.286196494174033e-06</v>
+        <v>-0.0489998523814507</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.203754505553197e-06</v>
+        <v>0.1324085124686692</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0489998523814507</v>
+        <v>0.01993154287219207</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1324085124686692</v>
+        <v>1.592580636812652</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01993154287219207</v>
+        <v>1.166928612464067</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.620955759403633</v>
+        <v>28.52076435158964</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.166928612464067</v>
+        <v>2.406415731461737e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>28.52076435158964</v>
+        <v>352787975.3180159</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.406415731461737e-14</v>
+        <v>3.018598569046909e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>352787975.3180159</v>
+        <v>2995.00951072539</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.018598569046909e-07</v>
+        <v>0.0001016978768412274</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2995.00951072539</v>
+        <v>6.860328028189728</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001016978768412274</v>
+        <v>1.98716404752785</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>6.860328028189728</v>
+        <v>0.004786319111990799</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.98716404752785</v>
+        <v>3.464658180550547</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.004786319111990799</v>
+        <v>0.9412245371133747</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.464658180550547</v>
+        <v>0.7187739881162648</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9412245371133747</v>
+        <v>3</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.7187739881162648</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2384751111173185</v>
       </c>
     </row>
@@ -8440,72 +8296,66 @@
         <v>2.889567716207944e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.620955790180367</v>
+        <v>1.286196494174033e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2.709144945401058</v>
+        <v>4.188250589625581e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.286196494174033e-06</v>
+        <v>-0.05430219084171447</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.188250589625581e-06</v>
+        <v>0.1418000891977265</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05430219084171447</v>
+        <v>0.02305603344783325</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1418000891977265</v>
+        <v>1.590260114573008</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02305603344783325</v>
+        <v>1.172054800659283</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.609393724187783</v>
+        <v>26.69451931012085</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.172054800659283</v>
+        <v>2.746937441483243e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>26.69451931012085</v>
+        <v>309093307.8813271</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.746937441483243e-14</v>
+        <v>3.445409796124777e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>309093307.8813271</v>
+        <v>2624.387579102019</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.445409796124777e-07</v>
+        <v>8.544007558164115e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2624.387579102019</v>
+        <v>11.46590461045452</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>8.544007558164115e-05</v>
+        <v>1.599009917915525</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>11.46590461045452</v>
+        <v>0.01123254772820869</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.599009917915525</v>
+        <v>4.677382932252632</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01123254772820869</v>
+        <v>0.9427209274441272</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>4.677382932252632</v>
+        <v>0.8440144746090698</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9427209274441272</v>
+        <v>3</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8440144746090698</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>1.904164251522519</v>
       </c>
     </row>
@@ -8520,72 +8370,66 @@
         <v>2.616532319922423e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.585766383624465</v>
+        <v>1.273907863194696e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>3.050272557061466</v>
+        <v>4.172544866557219e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.273907863194696e-06</v>
+        <v>-0.05938283387276922</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.172544866557219e-06</v>
+        <v>0.15652362378757</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05938283387276922</v>
+        <v>0.02802485637488163</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.15652362378757</v>
+        <v>1.571571108075361</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02802485637488163</v>
+        <v>1.175001586272582</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.584029791331659</v>
+        <v>26.46635806221187</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.175001586272582</v>
+        <v>2.79450319980567e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>26.46635806221187</v>
+        <v>303855135.5869297</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.79450319980567e-14</v>
+        <v>3.504683000804577e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>303855135.5869297</v>
+        <v>2580.10733325797</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.504683000804577e-07</v>
+        <v>3.263394274691121e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2580.10733325797</v>
+        <v>9.954626720219734</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>3.263394274691121e-05</v>
+        <v>1.452968221915792</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.954626720219734</v>
+        <v>0.003233847279023737</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.452968221915792</v>
+        <v>6.779860259033469</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.003233847279023737</v>
+        <v>0.9420261659491143</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>6.779860259033469</v>
+        <v>0.9316053916556519</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9420261659491143</v>
+        <v>4</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.9316053916556519</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>5.697190695137584</v>
       </c>
     </row>
@@ -8600,72 +8444,66 @@
         <v>2.327822779591144e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.420000726234205</v>
+        <v>1.203663927349918e-06</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.947788902282165</v>
+        <v>4.157610828645904e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.203663927349918e-06</v>
+        <v>-0.06066245848200701</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.157610828645904e-06</v>
+        <v>0.1738321786821679</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.06066245848200701</v>
+        <v>0.03388631495912215</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1738321786821679</v>
+        <v>1.558063289557821</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03388631495912215</v>
+        <v>1.206212589781681</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.564620416284902</v>
+        <v>29.28468027781376</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.206212589781681</v>
+        <v>3.17120993099252e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>29.28468027781376</v>
+        <v>277804633.9793482</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.17120993099252e-14</v>
+        <v>3.832290560966197e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>277804633.9793482</v>
+        <v>2447.39441399525</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.832290560966197e-07</v>
+        <v>2.362660773440031e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>2447.39441399525</v>
+        <v>6.930485988788372</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>2.362660773440031e-05</v>
+        <v>1.470109004231258</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>6.930485988788372</v>
+        <v>0.001134824623577276</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.470109004231258</v>
+        <v>7.41674158127591</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.001134824623577276</v>
+        <v>0.9413877467616082</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>7.41674158127591</v>
+        <v>0.91279166626118</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9413877467616082</v>
+        <v>5</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.91279166626118</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>6.897389764878157</v>
       </c>
     </row>
@@ -8680,72 +8518,66 @@
         <v>2.057086591025623e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.11273381591768</v>
+        <v>1.089688825537672e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2.354581657663841</v>
+        <v>4.144538740983976e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.089688825537672e-06</v>
+        <v>-0.05817972171970863</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.144538740983976e-06</v>
+        <v>0.1870325524325082</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05817972171970863</v>
+        <v>0.03834171801747175</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1870325524325082</v>
+        <v>1.55161819087101</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.03834171801747175</v>
+        <v>1.206139530963427</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.555194104163953</v>
+        <v>29.03461691674949</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.206139530963427</v>
+        <v>3.226069846961335e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>29.03461691674949</v>
+        <v>273078788.7657644</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.226069846961335e-14</v>
+        <v>3.898573954361718e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>273078788.7657644</v>
+        <v>2405.745608721425</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.898573954361718e-07</v>
+        <v>2.232362078686615e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>2405.745608721425</v>
+        <v>7.113086454664259</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>2.232362078686615e-05</v>
+        <v>1.493034577674893</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.113086454664259</v>
+        <v>0.001129485893033647</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.493034577674893</v>
+        <v>7.554458406447518</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.001129485893033647</v>
+        <v>0.9396430279073333</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>7.554458406447518</v>
+        <v>0.9754860871776968</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9396430279073333</v>
+        <v>5</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.9754860871776968</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>7.343874198035513</v>
       </c>
     </row>
@@ -8760,72 +8592,66 @@
         <v>1.828758871339579e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.700511272291888</v>
+        <v>9.610323199863629e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1.453628140085931</v>
+        <v>4.133761511076863e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>9.610323199863629e-07</v>
+        <v>-0.05240066230889454</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.133761511076863e-06</v>
+        <v>0.1940504954229021</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05240066230889454</v>
+        <v>0.04036945638663457</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1940504954229021</v>
+        <v>1.547372072272125</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.04036945638663457</v>
+        <v>1.205212008950791</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.548449417429437</v>
+        <v>29.03244679256256</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.205212008950791</v>
+        <v>3.226552151047437e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>29.03244679256256</v>
+        <v>273034712.5278975</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.226552151047437e-14</v>
+        <v>3.8991675810956e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>273034712.5278975</v>
+        <v>2405.32862126009</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.8991675810956e-07</v>
+        <v>2.393958555659539e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>2405.32862126009</v>
+        <v>7.182593858327494</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>2.393958555659539e-05</v>
+        <v>1.552761349490639</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.182593858327494</v>
+        <v>0.001235034948544323</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.552761349490639</v>
+        <v>7.474317620383249</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.001235034948544323</v>
+        <v>0.9385778373746265</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>7.474317620383249</v>
+        <v>0.9516878111332502</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9385778373746265</v>
+        <v>8</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.9516878111332502</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>7.191493159326912</v>
       </c>
     </row>
@@ -8840,72 +8666,66 @@
         <v>1.652358471560078e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.2494511346336875</v>
+        <v>8.381608709202306e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.5099348768980718</v>
+        <v>4.125391323601532e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>8.381608709202306e-07</v>
+        <v>-0.04342534074455386</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.125391323601532e-06</v>
+        <v>0.1966246994074833</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.04342534074455386</v>
+        <v>0.04051314790547252</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1966246994074833</v>
+        <v>1.545295333124843</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.04051314790547252</v>
+        <v>1.204260081822972</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.546479883521313</v>
+        <v>28.95577743727996</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.204260081822972</v>
+        <v>3.243661356842586e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>28.95577743727996</v>
+        <v>271590549.3120444</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.243661356842586e-14</v>
+        <v>3.919844856022229e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>271590549.3120444</v>
+        <v>2392.570886845477</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.919844856022229e-07</v>
+        <v>2.71376255486518e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>2392.570886845477</v>
+        <v>7.440245434453283</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>2.71376255486518e-05</v>
+        <v>1.588878893438083</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.440245434453283</v>
+        <v>0.001502264379567925</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.588878893438083</v>
+        <v>7.170665365176888</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.001502264379567925</v>
+        <v>0.9384519357626893</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>7.170665365176888</v>
+        <v>0.9420351385702196</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9384519357626893</v>
+        <v>8</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.9420351385702196</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>6.461461432794585</v>
       </c>
     </row>
@@ -8920,72 +8740,66 @@
         <v>1.52808710492322e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.1581709649513281</v>
+        <v>7.282992684844891e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.2451169764539713</v>
+        <v>4.119359266230274e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>7.282992684844891e-07</v>
+        <v>-0.0325351823296127</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.119359266230274e-06</v>
+        <v>0.1951436917941017</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.0325351823296127</v>
+        <v>0.03910984682063594</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1951436917941017</v>
+        <v>1.52634369827147</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.03910984682063594</v>
+        <v>1.204514848512338</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.524519180183518</v>
+        <v>28.38882187347342</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.204514848512338</v>
+        <v>3.37451394328043e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>28.38882187347342</v>
+        <v>261069016.1541413</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.37451394328043e-14</v>
+        <v>4.077680929498198e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>261069016.1541413</v>
+        <v>2299.968521024596</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>4.077680929498198e-07</v>
+        <v>2.725383520458497e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>2299.968521024596</v>
+        <v>7.810308863086187</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>2.725383520458497e-05</v>
+        <v>1.542275321844439</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.810308863086187</v>
+        <v>0.001662509144653343</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.542275321844439</v>
+        <v>6.907996715176895</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.001662509144653343</v>
+        <v>0.9319463278532073</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>6.907996715176895</v>
+        <v>0.9738093544981545</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9319463278532073</v>
+        <v>9</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.9738093544981545</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>5.745563073840291</v>
       </c>
     </row>
@@ -9000,72 +8814,66 @@
         <v>1.448743021367301e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.4534480155113084</v>
+        <v>6.326493240330642e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.6922799419050749</v>
+        <v>4.115264003491406e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>6.326493240330642e-07</v>
+        <v>-0.0229304083830874</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.115264003491406e-06</v>
+        <v>0.1891237354414379</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.0229304083830874</v>
+        <v>0.03626894510612307</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1891237354414379</v>
+        <v>1.522189008933142</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.03626894510612307</v>
+        <v>1.203907448465339</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.519361951198365</v>
+        <v>27.75265608672923</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.203907448465339</v>
+        <v>3.530993018053399e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>27.75265608672923</v>
+        <v>249504210.0123336</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.530993018053399e-14</v>
+        <v>4.266654723212263e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>249504210.0123336</v>
+        <v>2198.126160812164</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.266654723212263e-07</v>
+        <v>2.428559274203818e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>2198.126160812164</v>
+        <v>6.683333910251952</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>2.428559274203818e-05</v>
+        <v>1.882297422497452</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>6.683333910251952</v>
+        <v>0.001084763409086866</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.882297422497452</v>
+        <v>7.15248015473073</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.001084763409086866</v>
+        <v>0.929258209653918</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>7.15248015473073</v>
+        <v>0.9616883339685255</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.929258209653918</v>
+        <v>9</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.9616883339685255</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>5.80369092735622</v>
       </c>
     </row>
@@ -9080,72 +8888,66 @@
         <v>1.402791993550771e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.6219650646438379</v>
+        <v>5.493195610575687e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.8740027005394637</v>
+        <v>4.112596012308249e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.493195610575687e-07</v>
+        <v>-0.01471705398767813</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.112596012308249e-06</v>
+        <v>0.1806939370756079</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.01471705398767813</v>
+        <v>0.03284688320440483</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1806939370756079</v>
+        <v>1.512344152707759</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.03284688320440483</v>
+        <v>1.202383471338766</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.508164004925047</v>
+        <v>28.49250852362757</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.202383471338766</v>
+        <v>3.349998348031874e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>28.49250852362757</v>
+        <v>262988309.3551405</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.349998348031874e-14</v>
+        <v>4.047833200358334e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>262988309.3551405</v>
+        <v>2316.954361177164</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>4.047833200358334e-07</v>
+        <v>2.223963220239716e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>2316.954361177164</v>
+        <v>6.009717378720465</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>2.223963220239716e-05</v>
+        <v>1.848866020983478</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>6.009717378720465</v>
+        <v>0.0008032221904626123</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.848866020983478</v>
+        <v>7.417807193387484</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0008032221904626123</v>
+        <v>0.9213190133753952</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>7.417807193387484</v>
+        <v>1.017813981810035</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9213190133753952</v>
+        <v>10</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.017813981810035</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>6.534652171208032</v>
       </c>
     </row>
@@ -9522,7 +9324,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.287763898961793</v>
+        <v>1.273628972489162</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.041331310326083</v>
@@ -9611,7 +9413,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.272580057644581</v>
+        <v>1.256990940613201</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.91639856846976</v>
@@ -9700,7 +9502,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.268224495044201</v>
+        <v>1.240192538770751</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.029427964161712</v>
@@ -9789,7 +9591,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.273645628367654</v>
+        <v>1.245159375972946</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.016637671007725</v>
@@ -9878,7 +9680,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.258791975342051</v>
+        <v>1.235777691350168</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.980211435449332</v>
@@ -9967,7 +9769,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.262564713109882</v>
+        <v>1.235064535861758</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.789100855324041</v>
@@ -10056,7 +9858,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.245301810566741</v>
+        <v>1.224813560083136</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.102974484134456</v>
@@ -10145,7 +9947,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.25820961905148</v>
+        <v>1.23833912210027</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.130094941051741</v>
@@ -10234,7 +10036,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.277157513200448</v>
+        <v>1.261113959934526</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.256899485647988</v>
@@ -10323,7 +10125,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.283771672796388</v>
+        <v>1.265290448739139</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.15386338068278</v>
@@ -10412,7 +10214,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.279888865747499</v>
+        <v>1.260660442379048</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.186463463331799</v>
@@ -10501,7 +10303,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.268724810073419</v>
+        <v>1.249144138342321</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.275946554346661</v>
@@ -10590,7 +10392,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.273500552998814</v>
+        <v>1.254661345156556</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.11650308531386</v>
@@ -10679,7 +10481,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.270423548602704</v>
+        <v>1.250176825186202</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.218953981884325</v>
@@ -10768,7 +10570,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.275554645693775</v>
+        <v>1.251853387376218</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.115550279432301</v>
@@ -10857,7 +10659,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.278514376942365</v>
+        <v>1.258991062160449</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.022449933479371</v>
@@ -10946,7 +10748,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.292732415077469</v>
+        <v>1.275070951629879</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.177960888056412</v>
@@ -11035,7 +10837,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.288733450354631</v>
+        <v>1.268212082349551</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.214803450554587</v>
@@ -11124,7 +10926,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.302563814017695</v>
+        <v>1.282317172538568</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.960545591730594</v>
@@ -11213,7 +11015,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.315064770439372</v>
+        <v>1.290938531379878</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.177748755186845</v>
@@ -11302,7 +11104,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.34341428186955</v>
+        <v>1.320307146607683</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.311222539764036</v>
@@ -11391,7 +11193,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.328871618095444</v>
+        <v>1.306876803771378</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.363049538993793</v>
@@ -11480,7 +11282,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.319068104724295</v>
+        <v>1.295004692224553</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.248952146374655</v>
@@ -11569,7 +11371,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.302194284832572</v>
+        <v>1.27021516126496</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.319508475631339</v>
@@ -11658,7 +11460,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.310510427243886</v>
+        <v>1.283258036967074</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.40280107097424</v>
@@ -11747,7 +11549,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.332343504830471</v>
+        <v>1.300859963358288</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.616993532368767</v>
@@ -11836,7 +11638,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.342546812903907</v>
+        <v>1.312707936379293</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.44615748486111</v>
@@ -11925,7 +11727,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.344330291771831</v>
+        <v>1.311698637253261</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.510724299535829</v>
@@ -12014,7 +11816,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.35439721257672</v>
+        <v>1.321643525358901</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.474529788180237</v>
@@ -12103,7 +11905,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.359239451550077</v>
+        <v>1.322040240431219</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.481170401235612</v>
@@ -12192,7 +11994,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.360739336528525</v>
+        <v>1.324391813666274</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.452376367123231</v>
@@ -12281,7 +12083,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.36351782934142</v>
+        <v>1.326137805036859</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.618064332668835</v>
@@ -12370,7 +12172,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.376930765892366</v>
+        <v>1.344555911612755</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.285892461722133</v>
@@ -12459,7 +12261,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.372933694264693</v>
+        <v>1.339278272734627</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.493264482782835</v>
@@ -12548,7 +12350,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.368426313164227</v>
+        <v>1.334911492170463</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.465054352335338</v>
@@ -12637,7 +12439,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.368004648057881</v>
+        <v>1.336118948453845</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.565471598408618</v>
@@ -12726,7 +12528,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.385993627060455</v>
+        <v>1.354374276154447</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.517534767140449</v>
@@ -12815,7 +12617,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.403513023557776</v>
+        <v>1.369809452066054</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.474377158209757</v>
@@ -12904,7 +12706,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.392727132302666</v>
+        <v>1.360646770627214</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.353492671839002</v>
@@ -12993,7 +12795,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.389011940675939</v>
+        <v>1.360086439802753</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.42710978491124</v>
@@ -13082,7 +12884,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.38260098978509</v>
+        <v>1.357691896522806</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.54142292750096</v>
@@ -13171,7 +12973,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.366610203516602</v>
+        <v>1.345521646547995</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.766607697786855</v>
@@ -13260,7 +13062,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.354187354337313</v>
+        <v>1.330427087446435</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.668701365759313</v>
@@ -13349,7 +13151,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.329687125920783</v>
+        <v>1.314421142008807</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.614463721587954</v>
@@ -13438,7 +13240,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.320582129716414</v>
+        <v>1.30858293398156</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.482870652645875</v>
@@ -13527,7 +13329,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.320294987687985</v>
+        <v>1.306110565593794</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.592357283215156</v>
@@ -13616,7 +13418,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.312199460875999</v>
+        <v>1.293414587201457</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.401477604036144</v>
@@ -13705,7 +13507,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.310540516877626</v>
+        <v>1.293835486456913</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.464659625928999</v>
@@ -13794,7 +13596,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.316616548488672</v>
+        <v>1.301060021167786</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.790686918654987</v>
@@ -13883,7 +13685,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.32177044994339</v>
+        <v>1.302388532664582</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.513647896661603</v>
@@ -13972,7 +13774,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.321312245115687</v>
+        <v>1.298860947120135</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.349112054250891</v>
@@ -14061,7 +13863,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.31826703169305</v>
+        <v>1.291785844480014</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.440293387109589</v>
@@ -14150,7 +13952,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.31821996161124</v>
+        <v>1.293993827444509</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.699121766394817</v>
@@ -14239,7 +14041,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.337435390896229</v>
+        <v>1.303968590285553</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.28757396995181</v>
@@ -14328,7 +14130,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.328062032291855</v>
+        <v>1.299692809422004</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.502381913881683</v>
@@ -14417,7 +14219,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.326600793568089</v>
+        <v>1.300339319482898</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.361650183918855</v>
@@ -14506,7 +14308,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.337944767891522</v>
+        <v>1.309019959793177</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.44463878872669</v>
@@ -14595,7 +14397,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.358313946730875</v>
+        <v>1.32803777720036</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.255679349169814</v>
@@ -14684,7 +14486,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.369630632870711</v>
+        <v>1.330948006772029</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.500698204172061</v>
@@ -14773,7 +14575,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.370740808118397</v>
+        <v>1.331650486983499</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.628029899625576</v>
@@ -14862,7 +14664,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.36973527094908</v>
+        <v>1.3368696869673</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.27903858867913</v>
@@ -14951,7 +14753,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.402252581747681</v>
+        <v>1.371934926227663</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.687925545435049</v>
@@ -15040,7 +14842,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.384068583196022</v>
+        <v>1.357093312675603</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.435374353184692</v>
@@ -15129,7 +14931,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.393660301922316</v>
+        <v>1.364073592070624</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.490408964845818</v>
@@ -15218,7 +15020,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.396083491352311</v>
+        <v>1.373572769447317</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.564707453199558</v>
@@ -15307,7 +15109,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.408482377023116</v>
+        <v>1.390541412872117</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.53072668499069</v>
@@ -15396,7 +15198,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.412117376839503</v>
+        <v>1.386719079893776</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.342349373913665</v>
@@ -15485,7 +15287,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.405312866525794</v>
+        <v>1.386402663365027</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.675057353456122</v>
@@ -15574,7 +15376,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.419506539386249</v>
+        <v>1.403244662394229</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.366769415621846</v>
@@ -15663,7 +15465,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.435366435221512</v>
+        <v>1.416637198484862</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.61144876159163</v>
@@ -15752,7 +15554,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.448381728502563</v>
+        <v>1.430759895405756</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.714075634674823</v>
@@ -15841,7 +15643,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.438608916209313</v>
+        <v>1.422856610773562</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.671736544055446</v>
@@ -15930,7 +15732,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.453662840251393</v>
+        <v>1.442186054778256</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.647860652306956</v>
@@ -16019,7 +15821,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.480634806631354</v>
+        <v>1.467640381726323</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.585760426909525</v>
@@ -16108,7 +15910,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.491370157354004</v>
+        <v>1.479705099293273</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.90875001692396</v>
@@ -16197,7 +15999,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.486142322251833</v>
+        <v>1.472392843355075</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.715615844807071</v>
@@ -16483,7 +16285,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.571030880913756</v>
+        <v>1.587342180438248</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.851740175440602</v>
@@ -16572,7 +16374,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.535176447598034</v>
+        <v>1.552115690110494</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.809033205067352</v>
@@ -16661,7 +16463,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.520540767555525</v>
+        <v>1.526651985897974</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.801578931045128</v>
@@ -16750,7 +16552,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.497158496033529</v>
+        <v>1.499504340392862</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.77579849034864</v>
@@ -16839,7 +16641,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.445695853692189</v>
+        <v>1.455495826587095</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.781494238801094</v>
@@ -16928,7 +16730,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.416112165821556</v>
+        <v>1.424562863686945</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.770741435618369</v>
@@ -17017,7 +16819,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.346656459825835</v>
+        <v>1.344852263802256</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.109935194139902</v>
@@ -17106,7 +16908,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.326343119915886</v>
+        <v>1.322205571643756</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.135104504607676</v>
@@ -17195,7 +16997,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.235974497628897</v>
+        <v>1.23204436675407</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.605383169533406</v>
@@ -17284,7 +17086,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.236811197696689</v>
+        <v>1.234698929434856</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.599410076120382</v>
@@ -17373,7 +17175,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.232043683743641</v>
+        <v>1.227599766929296</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.595245482847556</v>
@@ -17462,7 +17264,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.228309563396518</v>
+        <v>1.225958594114103</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.600737879755328</v>
@@ -17551,7 +17353,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.23157480002729</v>
+        <v>1.228087723808396</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.605810520793501</v>
@@ -17640,7 +17442,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.230228299264545</v>
+        <v>1.226649921995852</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.595165446798799</v>
@@ -17729,7 +17531,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.22950971437038</v>
+        <v>1.226820859109147</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.60461467839558</v>
@@ -17818,7 +17620,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.235333240238762</v>
+        <v>1.23379295265387</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.534177450858371</v>
@@ -17907,7 +17709,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.245411167485341</v>
+        <v>1.246591393001324</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.59059438933427</v>
@@ -17996,7 +17798,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.24653138208939</v>
+        <v>1.249075026363672</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.585609438528793</v>
@@ -18085,7 +17887,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.267456140380002</v>
+        <v>1.270219199561019</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.61663429085396</v>
@@ -18174,7 +17976,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.287364565551037</v>
+        <v>1.292711587943626</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.579964773176655</v>
@@ -18263,7 +18065,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.311333333350246</v>
+        <v>1.318263045690319</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.54304097811208</v>
@@ -18352,7 +18154,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.318454781924995</v>
+        <v>1.322118144963022</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.558546488239872</v>
@@ -18441,7 +18243,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.35641761623053</v>
+        <v>1.357875518939466</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.474457301365431</v>
@@ -18530,7 +18332,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.58996809504013</v>
+        <v>1.572802551766997</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.607659511920499</v>
@@ -18619,7 +18421,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.58299275681943</v>
+        <v>1.562567599022234</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.557632277932253</v>
@@ -18708,7 +18510,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.593294388756622</v>
+        <v>1.577251107612084</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.364939831525761</v>
@@ -18797,7 +18599,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.599391815185174</v>
+        <v>1.577892605955943</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.506618982665802</v>
@@ -18886,7 +18688,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.590827502173518</v>
+        <v>1.57353509371919</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.518705466370573</v>
@@ -18975,7 +18777,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.594816674889653</v>
+        <v>1.573672957098692</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.556402981144054</v>
@@ -19064,7 +18866,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.589226072281155</v>
+        <v>1.566885331525952</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.384213449525269</v>
@@ -19153,7 +18955,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.588342817234161</v>
+        <v>1.565836909995993</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.328027680973395</v>
@@ -19242,7 +19044,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.568914435175015</v>
+        <v>1.54487182110996</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.299015710298415</v>
@@ -19331,7 +19133,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.557309193501871</v>
+        <v>1.536880594383742</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.239946800118912</v>
@@ -19420,7 +19222,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.556154514761856</v>
+        <v>1.539942617967507</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.184308968738533</v>
@@ -19509,7 +19311,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.556793634086378</v>
+        <v>1.538335176022159</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.239500807358775</v>
@@ -19598,7 +19400,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.556783008609345</v>
+        <v>1.540942472121422</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.015896228518645</v>
@@ -19687,7 +19489,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.589744461514041</v>
+        <v>1.569510952796853</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.038026156490023</v>
@@ -19776,7 +19578,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.591731074220751</v>
+        <v>1.577857056199665</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.973871514117744</v>
@@ -19865,7 +19667,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.588434076837091</v>
+        <v>1.581039850786085</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.99407822011475</v>
@@ -19954,7 +19756,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.605006841184117</v>
+        <v>1.595282715718509</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.788885644499024</v>
@@ -20043,7 +19845,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.606091344487029</v>
+        <v>1.591374282982374</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.056829589387585</v>
@@ -20132,7 +19934,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.608027774298154</v>
+        <v>1.595593549071823</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.835018006857409</v>
@@ -20221,7 +20023,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.623412094671269</v>
+        <v>1.604615328918943</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.064192546916356</v>
@@ -20310,7 +20112,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.619800888168833</v>
+        <v>1.60145521614469</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.006005679055884</v>
@@ -20399,7 +20201,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.627802223105549</v>
+        <v>1.61033979614148</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.814289316942575</v>
@@ -20488,7 +20290,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.624825354534863</v>
+        <v>1.606224731913087</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.058804313171255</v>
@@ -20577,7 +20379,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.632316552312528</v>
+        <v>1.611611301959025</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.076446814956134</v>
@@ -20666,7 +20468,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.630147222333522</v>
+        <v>1.604356823699785</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.873661928747367</v>
@@ -20755,7 +20557,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.632948985564712</v>
+        <v>1.607420266909195</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.675401820613955</v>
@@ -20844,7 +20646,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.636467750012732</v>
+        <v>1.60592938772557</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.019246550633924</v>
@@ -20933,7 +20735,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.627877188335497</v>
+        <v>1.594863048583575</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.820746007531449</v>
@@ -21022,7 +20824,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.62394838122603</v>
+        <v>1.589326994681614</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.66913181530597</v>
@@ -21111,7 +20913,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.618737275669295</v>
+        <v>1.57927629782737</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.986848159406477</v>
@@ -21200,7 +21002,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.623052485910957</v>
+        <v>1.581182103228107</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.902084329741334</v>
@@ -21289,7 +21091,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.62103234568143</v>
+        <v>1.582761442827398</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.050815525534652</v>
@@ -21378,7 +21180,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.610923270395799</v>
+        <v>1.581894239291875</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.917531976986593</v>
@@ -21467,7 +21269,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.61235388130473</v>
+        <v>1.58253521295498</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.858624469713507</v>
@@ -21556,7 +21358,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.597350240636076</v>
+        <v>1.571970580061082</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.980235654086234</v>
@@ -21645,7 +21447,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.588156978737665</v>
+        <v>1.563391433841218</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.933696730655342</v>
@@ -21734,7 +21536,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.586017021730641</v>
+        <v>1.561462202771425</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.897756588975233</v>
@@ -21823,7 +21625,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.586654723581207</v>
+        <v>1.557858207037095</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.94972816489578</v>
@@ -21912,7 +21714,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.611422786954619</v>
+        <v>1.580384897416263</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.828307710812596</v>
@@ -22001,7 +21803,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.609044461240768</v>
+        <v>1.586603070691569</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.196760914268093</v>
@@ -22090,7 +21892,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.618442974353363</v>
+        <v>1.593479145164319</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.133969542777967</v>
@@ -22179,7 +21981,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.607403269656957</v>
+        <v>1.59867321628898</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.794516440536772</v>
@@ -22268,7 +22070,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.608262983367388</v>
+        <v>1.603368602610187</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.979404296395263</v>
@@ -22357,7 +22159,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.604828686976001</v>
+        <v>1.601518203726412</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.01640250966387</v>
@@ -22446,7 +22248,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.61374610753283</v>
+        <v>1.610174128406593</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.694465988699564</v>
@@ -22535,7 +22337,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.612250325560348</v>
+        <v>1.609355953765361</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.124245975285675</v>
@@ -22624,7 +22426,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.617706893676776</v>
+        <v>1.612349969358054</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.778366138632046</v>
@@ -22713,7 +22515,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.630224343382898</v>
+        <v>1.625859689765632</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.928406998316194</v>
@@ -22802,7 +22604,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.622831859291918</v>
+        <v>1.623084446846171</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.908858017340275</v>
@@ -22891,7 +22693,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.632809902476578</v>
+        <v>1.637693749821999</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.856634292807125</v>
@@ -22980,7 +22782,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.641373056314146</v>
+        <v>1.646866938645679</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.836075780080558</v>
@@ -23069,7 +22871,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.641109659698048</v>
+        <v>1.650514279644284</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.009647476506321</v>
@@ -23158,7 +22960,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.640576861248882</v>
+        <v>1.652858273852478</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.907017861378759</v>
@@ -23444,7 +23246,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.50708893292767</v>
+        <v>1.514829751180004</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.748892057018291</v>
@@ -23533,7 +23335,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.477324296102932</v>
+        <v>1.480253297880585</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.800967960244607</v>
@@ -23622,7 +23424,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.466236493441929</v>
+        <v>1.45513828184254</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.709551119734429</v>
@@ -23711,7 +23513,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.446456629799797</v>
+        <v>1.433973850802579</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.678578489963811</v>
@@ -23800,7 +23602,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.427016905484177</v>
+        <v>1.415878496670818</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.696088914013359</v>
@@ -23889,7 +23691,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.404464598876445</v>
+        <v>1.394629040244498</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.71537626103633</v>
@@ -23978,7 +23780,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.351092136383367</v>
+        <v>1.316333701914589</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.042687971858514</v>
@@ -24067,7 +23869,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.331991606477981</v>
+        <v>1.3008776184606</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.120130057568702</v>
@@ -24156,7 +23958,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.400190659259342</v>
+        <v>1.381200671750823</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.188056847264203</v>
@@ -24245,7 +24047,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.425210541002884</v>
+        <v>1.404225084393945</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.168528975164398</v>
@@ -24334,7 +24136,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.421640411476842</v>
+        <v>1.391961729224594</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.159223815727873</v>
@@ -24423,7 +24225,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.417007912993</v>
+        <v>1.385949256361323</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.21799234806374</v>
@@ -24512,7 +24314,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.417430141465385</v>
+        <v>1.386214546528221</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.22084182556757</v>
@@ -24601,7 +24403,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.416400924750206</v>
+        <v>1.387614858694629</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.235030471916196</v>
@@ -24690,7 +24492,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.418459931153566</v>
+        <v>1.391719221555497</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.162099870283061</v>
@@ -24779,7 +24581,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.444227005240417</v>
+        <v>1.412068224202652</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.87441048075873</v>
@@ -24868,7 +24670,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.464975246508412</v>
+        <v>1.434470404129</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.198572177977881</v>
@@ -24957,7 +24759,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.464265142864308</v>
+        <v>1.434064746896103</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.225189153311638</v>
@@ -25046,7 +24848,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.500606495358688</v>
+        <v>1.464965396738879</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.106843348368114</v>
@@ -25135,7 +24937,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.516883904325176</v>
+        <v>1.482777024436233</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.207637099942348</v>
@@ -25224,7 +25026,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.576002716020478</v>
+        <v>1.527135675235008</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.145891155833817</v>
@@ -25313,7 +25115,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.592727871902868</v>
+        <v>1.543526303607782</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.176799425774404</v>
@@ -25402,7 +25204,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.652888212832773</v>
+        <v>1.588704944456044</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.046035912347885</v>
@@ -25491,7 +25293,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.609168271615044</v>
+        <v>1.531946350202743</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.425078357172149</v>
@@ -25580,7 +25382,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.551766077276204</v>
+        <v>1.489064625157254</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.085859581307947</v>
@@ -25669,7 +25471,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.571075929203334</v>
+        <v>1.516510891717993</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.066340463472558</v>
@@ -25758,7 +25560,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.580038587072457</v>
+        <v>1.528276798723974</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.05144087502231</v>
@@ -25847,7 +25649,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.586620105781536</v>
+        <v>1.53683703710253</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.065352736606964</v>
@@ -25936,7 +25738,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.586523838973766</v>
+        <v>1.531845351141629</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.017357679731949</v>
@@ -26025,7 +25827,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.584451982677065</v>
+        <v>1.522091610325928</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.044414988997079</v>
@@ -26114,7 +25916,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.58905897274386</v>
+        <v>1.528818996521258</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.01386652547898</v>
@@ -26203,7 +26005,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.579208093442936</v>
+        <v>1.517372698449413</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.048735939782071</v>
@@ -26292,7 +26094,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.585166357759998</v>
+        <v>1.524455659652555</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.990383092696566</v>
@@ -26381,7 +26183,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.582743790807238</v>
+        <v>1.525323252741442</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.025107110829825</v>
@@ -26470,7 +26272,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.583122078366469</v>
+        <v>1.530015587795186</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.011946352212032</v>
@@ -26559,7 +26361,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.584422355152817</v>
+        <v>1.535234666463509</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.985981891049101</v>
@@ -26648,7 +26450,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588910608043326</v>
+        <v>1.54299890536135</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.979891622030036</v>
@@ -26737,7 +26539,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.591860873500422</v>
+        <v>1.544344903508718</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.031363686094451</v>
@@ -26826,7 +26628,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.595501851360808</v>
+        <v>1.54020729208121</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.112413087048429</v>
@@ -26915,7 +26717,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.6516258188684</v>
+        <v>1.589682163021993</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.093124149175158</v>
@@ -27004,7 +26806,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.644791491601063</v>
+        <v>1.583767084008046</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.998511678929823</v>
@@ -27093,7 +26895,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.639467632949304</v>
+        <v>1.583822359492773</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.119827035981375</v>
@@ -27182,7 +26984,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.633091871619847</v>
+        <v>1.574221953573263</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.818010069373329</v>
@@ -27271,7 +27073,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.623938385841253</v>
+        <v>1.568565443350335</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.895668981646581</v>
@@ -27360,7 +27162,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.622185325574291</v>
+        <v>1.571690693302318</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.067710021919487</v>
@@ -27449,7 +27251,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.622073376218508</v>
+        <v>1.565372378936917</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.969883088232165</v>
@@ -27538,7 +27340,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.626460986535938</v>
+        <v>1.565756960008562</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.107457277514066</v>
@@ -27627,7 +27429,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.628988927379269</v>
+        <v>1.564988433382793</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.192277127176889</v>
@@ -27716,7 +27518,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.62921146237183</v>
+        <v>1.561915661705781</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.101284669294142</v>
@@ -27805,7 +27607,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.622718931774208</v>
+        <v>1.55067555445431</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.20318652244942</v>
@@ -27894,7 +27696,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.602943401606491</v>
+        <v>1.528340081312766</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.085576844569735</v>
@@ -27983,7 +27785,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.597042727816558</v>
+        <v>1.518576175169845</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.970768722911344</v>
@@ -28072,7 +27874,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.584058151507909</v>
+        <v>1.507297831711808</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.202797961809907</v>
@@ -28161,7 +27963,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.61090480107916</v>
+        <v>1.523095787664234</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.091719339523484</v>
@@ -28250,7 +28052,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.601829874202333</v>
+        <v>1.511018460801108</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.373998685934541</v>
@@ -28339,7 +28141,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.600870557838165</v>
+        <v>1.504923574133979</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.034323691174559</v>
@@ -28428,7 +28230,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.598070834973795</v>
+        <v>1.496427052341523</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.607400076730194</v>
@@ -28517,7 +28319,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.602609744311567</v>
+        <v>1.504613622077054</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.559627381723778</v>
@@ -28606,7 +28408,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.597211189971012</v>
+        <v>1.497893372153732</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.604011360464492</v>
@@ -28695,7 +28497,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.590212966915371</v>
+        <v>1.49525740167459</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.319590082399592</v>
@@ -28784,7 +28586,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.59976811521687</v>
+        <v>1.504486885777208</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.890815281022882</v>
@@ -28873,7 +28675,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.602472833384373</v>
+        <v>1.511124683767381</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.123501858218354</v>
@@ -28962,7 +28764,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.591617107384831</v>
+        <v>1.505275241913162</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.886714477914126</v>
@@ -29051,7 +28853,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.583274779518207</v>
+        <v>1.499185170915988</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.065407185921388</v>
@@ -29140,7 +28942,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.585835727543986</v>
+        <v>1.505923219198695</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.065466182884575</v>
@@ -29229,7 +29031,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.598625128925155</v>
+        <v>1.526888626292135</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.068228228353091</v>
@@ -29318,7 +29120,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.600452866447225</v>
+        <v>1.530448992402768</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.25415985776513</v>
@@ -29407,7 +29209,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.6107334135775</v>
+        <v>1.539033403609776</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.254513861898504</v>
@@ -29496,7 +29298,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.603095643348891</v>
+        <v>1.537234907597629</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.25419558568932</v>
@@ -29585,7 +29387,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.612880304022611</v>
+        <v>1.547427459056373</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.532984456523956</v>
@@ -29674,7 +29476,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.628729779406189</v>
+        <v>1.56730317090849</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.354001539932431</v>
@@ -29763,7 +29565,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.63725045187378</v>
+        <v>1.580621071388447</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.116889220396946</v>
@@ -29852,7 +29654,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.649171249286164</v>
+        <v>1.594920019146208</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.292038372669612</v>
@@ -29941,7 +29743,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.655531612672557</v>
+        <v>1.601749530737844</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.524312517544468</v>
@@ -30030,7 +29832,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.669337470986793</v>
+        <v>1.617851369728705</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.337952626718822</v>
@@ -30119,7 +29921,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.666088234146711</v>
+        <v>1.623547941510718</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.489669400368053</v>
@@ -30405,7 +30207,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.436327156757436</v>
+        <v>1.451610737574148</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.77142219435952</v>
@@ -30494,7 +30296,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.407106300137682</v>
+        <v>1.420383177677489</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.815950357234164</v>
@@ -30583,7 +30385,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.383318492969977</v>
+        <v>1.382672107555626</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.713500691607766</v>
@@ -30672,7 +30474,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.371564927000779</v>
+        <v>1.368652084096208</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.705092439584317</v>
@@ -30761,7 +30563,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.340124457313894</v>
+        <v>1.34589877851011</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.719063499837524</v>
@@ -30850,7 +30652,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.32907323300348</v>
+        <v>1.333902668217552</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.759161345705691</v>
@@ -30939,7 +30741,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.313968422618147</v>
+        <v>1.295232367560441</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.929945611162732</v>
@@ -31028,7 +30830,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.302811852986091</v>
+        <v>1.288182776688508</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.081009915612834</v>
@@ -31117,7 +30919,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.409574119139011</v>
+        <v>1.414365007582632</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.819365712264525</v>
@@ -31206,7 +31008,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.416451431819026</v>
+        <v>1.419106908755738</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.815379915845773</v>
@@ -31295,7 +31097,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.410617347469917</v>
+        <v>1.408965833979828</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.805759838280021</v>
@@ -31384,7 +31186,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.408152942250407</v>
+        <v>1.405146302240597</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.812864012019666</v>
@@ -31473,7 +31275,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.410064685006233</v>
+        <v>1.407688640765333</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.827254376599741</v>
@@ -31562,7 +31364,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.410389840343272</v>
+        <v>1.409836377341317</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.804535821450218</v>
@@ -31651,7 +31453,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.411235763400798</v>
+        <v>1.408351840487141</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.789145276329036</v>
@@ -31740,7 +31542,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.436326817955912</v>
+        <v>1.434814997154464</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.685688219131355</v>
@@ -31829,7 +31631,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.455512146708141</v>
+        <v>1.454325799065256</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.815546640175774</v>
@@ -31918,7 +31720,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.456895265995676</v>
+        <v>1.45514837505924</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.798488731257265</v>
@@ -32007,7 +31809,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.4890326126556</v>
+        <v>1.48259247076971</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.933628949652609</v>
@@ -32096,7 +31898,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.516944757676895</v>
+        <v>1.502945703769971</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.79517935458183</v>
@@ -32185,7 +31987,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.573706871874574</v>
+        <v>1.548453784481227</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.765430314761276</v>
@@ -32274,7 +32076,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.579666119625834</v>
+        <v>1.555871022077926</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.805203364411757</v>
@@ -32363,7 +32165,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.603139520507603</v>
+        <v>1.567139487611332</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.738704366397737</v>
@@ -32452,7 +32254,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.523821405027615</v>
+        <v>1.46206191047076</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.009964008028608</v>
@@ -32541,7 +32343,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.526271758490445</v>
+        <v>1.464168201478521</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.19049730874536</v>
@@ -32630,7 +32432,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.547094146446753</v>
+        <v>1.482273738493189</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.200380340302559</v>
@@ -32719,7 +32521,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.560113956537994</v>
+        <v>1.495430911870305</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.948667163204134</v>
@@ -32808,7 +32610,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.56188912364875</v>
+        <v>1.493255640002162</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.95320393494513</v>
@@ -32897,7 +32699,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.571441493769985</v>
+        <v>1.497865461638789</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.101363093505089</v>
@@ -32986,7 +32788,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.57220751004308</v>
+        <v>1.496017529733289</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.984293688439355</v>
@@ -33075,7 +32877,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.565138827693812</v>
+        <v>1.488378566594309</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.095179868869395</v>
@@ -33164,7 +32966,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.561242097324375</v>
+        <v>1.479173725580791</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.189847525314253</v>
@@ -33253,7 +33055,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.580268479701293</v>
+        <v>1.488361298019283</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.691060394626349</v>
@@ -33342,7 +33144,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.573209964629756</v>
+        <v>1.479276566064999</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.740677113328792</v>
@@ -33431,7 +33233,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.573321709664113</v>
+        <v>1.4803998750215</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.149765106732251</v>
@@ -33520,7 +33322,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.569092633648569</v>
+        <v>1.481380037437528</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.135719703434308</v>
@@ -33609,7 +33411,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.576286259362419</v>
+        <v>1.486985672965775</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.937375233090002</v>
@@ -33698,7 +33500,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.588314699812768</v>
+        <v>1.495146880290992</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.132341782534548</v>
@@ -33787,7 +33589,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.566564964131365</v>
+        <v>1.482680799804259</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.760786625068091</v>
@@ -33876,7 +33678,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.563649139950979</v>
+        <v>1.483001015743889</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.862133546841872</v>
@@ -33965,7 +33767,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.556788093125498</v>
+        <v>1.478979679994659</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.736069058892181</v>
@@ -34054,7 +33856,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.534829637883685</v>
+        <v>1.460148469480194</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.812407876978321</v>
@@ -34143,7 +33945,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.526541451450631</v>
+        <v>1.454721253138514</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.738243422094955</v>
@@ -34232,7 +34034,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.511022111763926</v>
+        <v>1.445975516835189</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.62464621958921</v>
@@ -34321,7 +34123,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.5096358675944</v>
+        <v>1.44872042437079</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.890964051026467</v>
@@ -34410,7 +34212,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.514554254776942</v>
+        <v>1.455406533713694</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.709902982607921</v>
@@ -34499,7 +34301,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.515123000350668</v>
+        <v>1.463116893577448</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.904562196911442</v>
@@ -34588,7 +34390,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.51381074872697</v>
+        <v>1.468128415921383</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.89246600553773</v>
@@ -34677,7 +34479,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.517614820094657</v>
+        <v>1.474419282560042</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.786790505184583</v>
@@ -34766,7 +34568,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.517323790508075</v>
+        <v>1.468429841206544</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.940107466296464</v>
@@ -34855,7 +34657,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.50433851133799</v>
+        <v>1.450537587937255</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.956920722778687</v>
@@ -34944,7 +34746,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.498859108355617</v>
+        <v>1.442911411834777</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.623529167684735</v>
@@ -35033,7 +34835,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.493863159483552</v>
+        <v>1.444050748288557</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.905300175293072</v>
@@ -35122,7 +34924,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.520678907016546</v>
+        <v>1.456481083757486</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.970186978449041</v>
@@ -35211,7 +35013,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.511563108735396</v>
+        <v>1.44980385239576</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.317414971605283</v>
@@ -35300,7 +35102,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.507085480880097</v>
+        <v>1.444657601493276</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.746271653185145</v>
@@ -35389,7 +35191,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.515490789040501</v>
+        <v>1.45471242750331</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.335845946745728</v>
@@ -35478,7 +35280,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.515049531875579</v>
+        <v>1.452659930711052</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.40894683642558</v>
@@ -35567,7 +35369,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.52157392389677</v>
+        <v>1.453667201099422</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.345378247974678</v>
@@ -35656,7 +35458,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.520057193696682</v>
+        <v>1.454434280261766</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.125336817676936</v>
@@ -35745,7 +35547,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.511328023551937</v>
+        <v>1.448455709965192</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.09378938862142</v>
@@ -35834,7 +35636,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.515995388803924</v>
+        <v>1.448718005696114</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.344890578536545</v>
@@ -35923,7 +35725,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.510010633208308</v>
+        <v>1.443151721765232</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.146994656098728</v>
@@ -36012,7 +35814,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.517182874775358</v>
+        <v>1.452065741959941</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.452209912774084</v>
@@ -36101,7 +35903,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.529609053320448</v>
+        <v>1.467818048952164</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.242896253971748</v>
@@ -36190,7 +35992,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.549949260606084</v>
+        <v>1.495750613172073</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.139412006873113</v>
@@ -36279,7 +36081,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.561640207516571</v>
+        <v>1.506075186683934</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.77604708944873</v>
@@ -36368,7 +36170,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.561223129870403</v>
+        <v>1.510342934162979</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.416912530543736</v>
@@ -36457,7 +36259,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.568513921352886</v>
+        <v>1.522555329562847</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.942636630195131</v>
@@ -36546,7 +36348,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.589424795108628</v>
+        <v>1.540465152476025</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.964791673400586</v>
@@ -36635,7 +36437,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.608857544080593</v>
+        <v>1.560327572040584</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.061573263464392</v>
@@ -36724,7 +36526,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.601766177016363</v>
+        <v>1.553639848253644</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.211620092190283</v>
@@ -36813,7 +36615,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.621204645118994</v>
+        <v>1.572607441758906</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.468820810024588</v>
@@ -36902,7 +36704,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.636090903922933</v>
+        <v>1.58895147652482</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.538437195975249</v>
@@ -36991,7 +36793,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.64182951372792</v>
+        <v>1.593013727589418</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.116106461514582</v>
@@ -37080,7 +36882,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.655045471472793</v>
+        <v>1.600870571623857</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.440899695726046</v>
@@ -37366,7 +37168,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.128799437677936</v>
+        <v>1.110199063883597</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.719090915244753</v>
@@ -37455,7 +37257,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.13366682163063</v>
+        <v>1.113553796366901</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.595426988824983</v>
@@ -37544,7 +37346,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.128928562642931</v>
+        <v>1.112365247273867</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.560727099921685</v>
@@ -37633,7 +37435,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.129676549660832</v>
+        <v>1.116311721499804</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.6484590410029</v>
@@ -37722,7 +37524,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.124631379606112</v>
+        <v>1.106215882917182</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.700553578018088</v>
@@ -37811,7 +37613,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.122717226546851</v>
+        <v>1.101333752801522</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.746573148540853</v>
@@ -37900,7 +37702,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.114899966134682</v>
+        <v>1.093949335466332</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.611367416080865</v>
@@ -37989,7 +37791,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.112130064976526</v>
+        <v>1.09109481399899</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.692116523220878</v>
@@ -38078,7 +37880,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.139229131322558</v>
+        <v>1.12467824454205</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.683619214513806</v>
@@ -38167,7 +37969,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.142195944706817</v>
+        <v>1.129152146446752</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.731530069953041</v>
@@ -38256,7 +38058,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.146739119957626</v>
+        <v>1.133275325016879</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.715073646517378</v>
@@ -38345,7 +38147,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.149449512806324</v>
+        <v>1.135940387184726</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.691044803955367</v>
@@ -38434,7 +38236,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.14999904534688</v>
+        <v>1.136753189424659</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.698307507565399</v>
@@ -38523,7 +38325,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.150028896192554</v>
+        <v>1.137258597855962</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.693290399551984</v>
@@ -38612,7 +38414,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.15286134902214</v>
+        <v>1.139994933995261</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.677392567244028</v>
@@ -38701,7 +38503,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.154248656070058</v>
+        <v>1.142043684609262</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.665339391569273</v>
@@ -38790,7 +38592,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.155395619556717</v>
+        <v>1.144636920011852</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.698048763185121</v>
@@ -38879,7 +38681,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.15735992246154</v>
+        <v>1.145499809592087</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.669274744563344</v>
@@ -38968,7 +38770,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.194274196393855</v>
+        <v>1.183015880577576</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.564619836380209</v>
@@ -39057,7 +38859,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.19153272945602</v>
+        <v>1.189042352619026</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.611336161775631</v>
@@ -39146,7 +38948,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.266736668147534</v>
+        <v>1.266514213423495</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.651310502099815</v>
@@ -39235,7 +39037,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.290018532598019</v>
+        <v>1.295592459242044</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.587414946677762</v>
@@ -39324,7 +39126,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.407971437245364</v>
+        <v>1.415147631081965</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.73442902821229</v>
@@ -39413,7 +39215,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.442552458887315</v>
+        <v>1.433498340422893</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.963696879864672</v>
@@ -39502,7 +39304,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.463710230351682</v>
+        <v>1.453379597954568</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.060386859712488</v>
@@ -39591,7 +39393,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.464284166740787</v>
+        <v>1.458151601814689</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.061600543320268</v>
@@ -39680,7 +39482,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.478354818892204</v>
+        <v>1.475306441461642</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.043646440360659</v>
@@ -39769,7 +39571,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.470106820850428</v>
+        <v>1.467287444167087</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.025777908234178</v>
@@ -39858,7 +39660,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.4740061608207</v>
+        <v>1.469359945997111</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.047970484824522</v>
@@ -39947,7 +39749,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.479901628956228</v>
+        <v>1.472644150277902</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.106318973262708</v>
@@ -40036,7 +39838,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.508327864183046</v>
+        <v>1.497137897869294</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.011638799247664</v>
@@ -40125,7 +39927,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.50049052915452</v>
+        <v>1.489198598299059</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.005226653312191</v>
@@ -40214,7 +40016,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.587230169588377</v>
+        <v>1.564503744296419</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.228393385143524</v>
@@ -40303,7 +40105,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.573947237995914</v>
+        <v>1.565962175145251</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.802959433544192</v>
@@ -40392,7 +40194,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.532506410762043</v>
+        <v>1.531309819378462</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.54506302271055</v>
@@ -40481,7 +40283,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.531810343651959</v>
+        <v>1.53581450464475</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.480805193681926</v>
@@ -40570,7 +40372,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.5405997587339</v>
+        <v>1.551006280618801</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.601446059334015</v>
@@ -40659,7 +40461,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.501896445083845</v>
+        <v>1.513555900811544</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.133044820517966</v>
@@ -40748,7 +40550,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.285744324878954</v>
+        <v>1.286524618177175</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.592034332665584</v>
@@ -40837,7 +40639,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.242743599142309</v>
+        <v>1.256170412188238</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.600558278529188</v>
@@ -40926,7 +40728,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.237126171253002</v>
+        <v>1.251395504954104</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.607335470235458</v>
@@ -41015,7 +40817,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.234059909486505</v>
+        <v>1.248786218004954</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.611062135742315</v>
@@ -41104,7 +40906,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.238192846555366</v>
+        <v>1.253764825544105</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.610343286038278</v>
@@ -41193,7 +40995,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.237412715923593</v>
+        <v>1.254423315349482</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.614783041555624</v>
@@ -41282,7 +41084,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.238182286678715</v>
+        <v>1.255857084939256</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.617093363530579</v>
@@ -41371,7 +41173,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.239445794278644</v>
+        <v>1.256073935976256</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.613186401080246</v>
@@ -41460,7 +41262,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.243448914632117</v>
+        <v>1.258529817718869</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.6164553267195</v>
@@ -41549,7 +41351,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.246859976592609</v>
+        <v>1.260882193790533</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.597751176010983</v>
@@ -41638,7 +41440,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.247052126564508</v>
+        <v>1.26050166961767</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.617162652849535</v>
@@ -41727,7 +41529,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.258561458289572</v>
+        <v>1.270236081500443</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.609220378347803</v>
@@ -41816,7 +41618,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.255277454716775</v>
+        <v>1.262712154791152</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.612678174485223</v>
@@ -41905,7 +41707,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.249226915798374</v>
+        <v>1.253025199021843</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.616509259973094</v>
@@ -41994,7 +41796,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.241056246318376</v>
+        <v>1.243673049014752</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.578575100941253</v>
@@ -42083,7 +41885,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.421788055265658</v>
+        <v>1.420124294230746</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.731974107308964</v>
@@ -42172,7 +41974,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.458611993343126</v>
+        <v>1.450802564737264</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.029871659368224</v>
@@ -42261,7 +42063,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.475363438407526</v>
+        <v>1.463526960138752</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.04133587156263</v>
@@ -42350,7 +42152,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.46813021245336</v>
+        <v>1.456376024451429</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.123320171199796</v>
@@ -42439,7 +42241,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.467363520202042</v>
+        <v>1.453789895089155</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.121948804234303</v>
@@ -42528,7 +42330,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.455044040540799</v>
+        <v>1.440282093996539</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.143644883036809</v>
@@ -42617,7 +42419,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.344024172968542</v>
+        <v>1.337574458522879</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.754329457676097</v>
@@ -42706,7 +42508,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.337216158388048</v>
+        <v>1.342738447578729</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.767138569850103</v>
@@ -42795,7 +42597,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.345305646406632</v>
+        <v>1.351204784960161</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.80242668224995</v>
@@ -42884,7 +42686,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.331883303124693</v>
+        <v>1.345404039464683</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.782848270217747</v>
@@ -42973,7 +42775,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.343938188478023</v>
+        <v>1.360777644946267</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.790367040550598</v>
@@ -43062,7 +42864,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.359204972743995</v>
+        <v>1.381600970105737</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.825535848966283</v>
@@ -43151,7 +42953,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.375834959169022</v>
+        <v>1.407041174404488</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.835119862726186</v>
@@ -43240,7 +43042,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.414928363561857</v>
+        <v>1.445930208571364</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.769607108255779</v>
@@ -43329,7 +43131,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.44114542388028</v>
+        <v>1.475335147007604</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.824678738261224</v>
@@ -43418,7 +43220,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.448874813113869</v>
+        <v>1.484979724461313</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.818069133364749</v>
@@ -43507,7 +43309,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.461155203188008</v>
+        <v>1.497055628986224</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.872154277584067</v>
@@ -43596,7 +43398,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.479711001030696</v>
+        <v>1.520199976517754</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.887006947030412</v>
@@ -43685,7 +43487,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.48588290242646</v>
+        <v>1.523967648544274</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.898166195363844</v>
@@ -43774,7 +43576,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.472943379080077</v>
+        <v>1.51763425798833</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.891090647914081</v>
@@ -43863,7 +43665,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.489899960272323</v>
+        <v>1.529893173900714</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.966021347347751</v>
@@ -43952,7 +43754,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.611752919213598</v>
+        <v>1.647179893505955</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.245983578790771</v>
@@ -44041,7 +43843,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.622133158196945</v>
+        <v>1.654636260597917</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.786578443024277</v>
@@ -44327,7 +44129,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.209881499197301</v>
+        <v>1.195872821164426</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.705948301963775</v>
@@ -44416,7 +44218,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.190187142417686</v>
+        <v>1.175794484030155</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.696602650169832</v>
@@ -44505,7 +44307,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.184363623712777</v>
+        <v>1.165271336607341</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.684059624242642</v>
@@ -44594,7 +44396,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.186544727090242</v>
+        <v>1.169450323609326</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.694818564913258</v>
@@ -44683,7 +44485,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.1901003204335</v>
+        <v>1.171719592082669</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.671585070116598</v>
@@ -44772,7 +44574,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.195668583553188</v>
+        <v>1.171009239707526</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.609875536202277</v>
@@ -44861,7 +44663,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.22537643191586</v>
+        <v>1.189495340602222</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.03632873187304</v>
@@ -44950,7 +44752,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.229767898168922</v>
+        <v>1.19338725531374</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.203726616288595</v>
@@ -45039,7 +44841,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.2671315833184</v>
+        <v>1.244599563076263</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.146442583609876</v>
@@ -45128,7 +44930,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.271370841365171</v>
+        <v>1.24673499015481</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.177129234650697</v>
@@ -45217,7 +45019,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.268552979754241</v>
+        <v>1.242581430025241</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.078525151731463</v>
@@ -45306,7 +45108,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.262252955935227</v>
+        <v>1.236998977871189</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.098132869070007</v>
@@ -45395,7 +45197,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.269656107283998</v>
+        <v>1.243002178821945</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.147298589091035</v>
@@ -45484,7 +45286,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.27225944128686</v>
+        <v>1.244799001086481</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.02872334330875</v>
@@ -45573,7 +45375,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.280997327130111</v>
+        <v>1.247848813613085</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.979203416948237</v>
@@ -45662,7 +45464,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.290931224274037</v>
+        <v>1.261638293548705</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.85259954635372</v>
@@ -45751,7 +45553,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.312563434065566</v>
+        <v>1.282224700024831</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.078637237435876</v>
@@ -45840,7 +45642,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.312544421552708</v>
+        <v>1.280043252756829</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.993034704153233</v>
@@ -45929,7 +45731,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.311466496268692</v>
+        <v>1.283928992757568</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.166772511642948</v>
@@ -46018,7 +45820,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.313174734759914</v>
+        <v>1.286395249026069</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.025283194066719</v>
@@ -46107,7 +45909,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.341490959039169</v>
+        <v>1.315743105814967</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.133925337263088</v>
@@ -46196,7 +45998,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.328258286659173</v>
+        <v>1.307812011054793</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.118868133786485</v>
@@ -46285,7 +46087,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.317627234757679</v>
+        <v>1.295500092344351</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.955607489177548</v>
@@ -46374,7 +46176,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.272292686470308</v>
+        <v>1.234856080126333</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.525911208902934</v>
@@ -46463,7 +46265,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.277361989468855</v>
+        <v>1.244058716875845</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.304569279461488</v>
@@ -46552,7 +46354,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.293667977357312</v>
+        <v>1.260909828469194</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.399391740369497</v>
@@ -46641,7 +46443,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.308429104656672</v>
+        <v>1.277516636309341</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.266749534008641</v>
@@ -46730,7 +46532,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.309989910480934</v>
+        <v>1.278226026854973</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.265875452607231</v>
@@ -46819,7 +46621,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.323187235515337</v>
+        <v>1.292687800462267</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.296923915449369</v>
@@ -46908,7 +46710,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.322703814543559</v>
+        <v>1.290481540829731</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.260106191281569</v>
@@ -46997,7 +46799,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.320276703363613</v>
+        <v>1.287706766960425</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.356757788997484</v>
@@ -47086,7 +46888,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.322343735252773</v>
+        <v>1.287965147946818</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.352031742110057</v>
@@ -47175,7 +46977,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.349034680847636</v>
+        <v>1.313215526440195</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.106469792311664</v>
@@ -47264,7 +47066,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.344198983914664</v>
+        <v>1.308660673162651</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.260341261968142</v>
@@ -47353,7 +47155,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.343386161612784</v>
+        <v>1.307456006605135</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.186362694922954</v>
@@ -47442,7 +47244,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.337253703553119</v>
+        <v>1.302249383802597</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.475530447316049</v>
@@ -47531,7 +47333,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.353623259044499</v>
+        <v>1.321609722491176</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.310247644998737</v>
@@ -47620,7 +47422,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.376470744838569</v>
+        <v>1.342246338109311</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.268439652928169</v>
@@ -47709,7 +47511,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.37605966021654</v>
+        <v>1.342440564785018</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.206268551644066</v>
@@ -47798,7 +47600,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.374612982878797</v>
+        <v>1.339750967493309</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.284045706541634</v>
@@ -47887,7 +47689,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.36963709062296</v>
+        <v>1.341983595450069</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.335763540680816</v>
@@ -47976,7 +47778,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.340893380409099</v>
+        <v>1.31523907548534</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.362089414593322</v>
@@ -48065,7 +47867,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.32149193584192</v>
+        <v>1.295442313623077</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.361297732332723</v>
@@ -48154,7 +47956,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.295111523775589</v>
+        <v>1.276574858625656</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.438032680502029</v>
@@ -48243,7 +48045,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.293730049877401</v>
+        <v>1.278051810156616</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.278447032160476</v>
@@ -48332,7 +48134,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.293931943442359</v>
+        <v>1.27940173562817</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.519449580408664</v>
@@ -48421,7 +48223,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.286757970425363</v>
+        <v>1.270197730300906</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.380635097071145</v>
@@ -48510,7 +48312,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.273288657335011</v>
+        <v>1.260180581043263</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.375090306876354</v>
@@ -48599,7 +48401,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.278999413705119</v>
+        <v>1.267440253905571</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.479610962928807</v>
@@ -48688,7 +48490,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.278050341384033</v>
+        <v>1.263133337032615</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.469249656827955</v>
@@ -48777,7 +48579,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.280978364382896</v>
+        <v>1.258283967425062</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.378449247694481</v>
@@ -48866,7 +48668,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.278491364295025</v>
+        <v>1.248664917682784</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.614672503878748</v>
@@ -48955,7 +48757,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.274740975893308</v>
+        <v>1.24963374713531</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.597985232462869</v>
@@ -49044,7 +48846,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.297827280525951</v>
+        <v>1.262277775940102</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.234745874065579</v>
@@ -49133,7 +48935,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.295275420807224</v>
+        <v>1.263423352554949</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.419998979177388</v>
@@ -49222,7 +49024,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.299577253383683</v>
+        <v>1.265061063713655</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.28114545128925</v>
@@ -49311,7 +49113,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.312754188599232</v>
+        <v>1.279233863408082</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.452602823060589</v>
@@ -49400,7 +49202,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.335313305857684</v>
+        <v>1.299931631232971</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.311133652461373</v>
@@ -49489,7 +49291,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.350123210966739</v>
+        <v>1.307533552876822</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.487867190642243</v>
@@ -49578,7 +49380,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.352013297099034</v>
+        <v>1.314274475487528</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.424482470898449</v>
@@ -49667,7 +49469,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.348378830338218</v>
+        <v>1.313199834942271</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.280031110225213</v>
@@ -49756,7 +49558,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.376440355162137</v>
+        <v>1.338363876440599</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.633509181074859</v>
@@ -49845,7 +49647,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.367730631864791</v>
+        <v>1.333051660331444</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.428835330039159</v>
@@ -49934,7 +49736,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.382168960271912</v>
+        <v>1.345530090338799</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.404686331408194</v>
@@ -50023,7 +49825,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.382349465614696</v>
+        <v>1.349396559934439</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.540332317802536</v>
@@ -50112,7 +49914,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.39960972020405</v>
+        <v>1.373541423190402</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.393428821700654</v>
@@ -50201,7 +50003,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.406825046766319</v>
+        <v>1.378673997055887</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.160579026489703</v>
@@ -50290,7 +50092,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.411702047274411</v>
+        <v>1.386842644608165</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.423447414007858</v>
@@ -50379,7 +50181,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.426198164170062</v>
+        <v>1.403821060062939</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.223922493140606</v>
@@ -50468,7 +50270,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.445408994893542</v>
+        <v>1.42031162721738</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.302744656677596</v>
@@ -50557,7 +50359,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.461436044370871</v>
+        <v>1.43901425434837</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.337261123460701</v>
@@ -50646,7 +50448,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.446370669310844</v>
+        <v>1.421820655497713</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.38423550385144</v>
@@ -50735,7 +50537,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.461856322760307</v>
+        <v>1.435556507572779</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.498811738745912</v>
@@ -50824,7 +50626,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.494787747990478</v>
+        <v>1.469257768176772</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.500074086447252</v>
@@ -50913,7 +50715,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.50147696241211</v>
+        <v>1.476358188554622</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.691898871036935</v>
@@ -51002,7 +50804,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.501176112743231</v>
+        <v>1.476216338510727</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.651374984823892</v>
